--- a/data.xlsx
+++ b/data.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QSP\Documents\June Batches\Advance selenium_3clk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ECAB5B-C759-4319-BABF-819FFC39C183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B951ACC-CFB9-40E1-A0D7-3B6A9BBF0527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{EFFA1C28-E00E-476A-9FC8-FFA7824A69BD}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>sl.no</t>
   </si>
@@ -57,49 +57,17 @@
     <t>Google</t>
   </si>
   <si>
-    <t>SR_02</t>
-  </si>
-  <si>
-    <t>SR_03</t>
-  </si>
-  <si>
-    <t>SR_014</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/</t>
-  </si>
-  <si>
-    <t>Amazon.com. Spend less. Smile more.</t>
-  </si>
-  <si>
-    <t>https://www.myntra.com/</t>
-  </si>
-  <si>
-    <t>Online Shopping for Women, Men, Kids Fashion &amp; Lifestyle - Myntra</t>
-  </si>
-  <si>
-    <t>https://skillrary.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SkillRary: Online Courses - Learn Anywhere, Learn Any Skill </t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>Status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -464,15 +432,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F994DF8-D365-4949-BECD-CED82BFB590D}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="51.140625" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,10 +464,13 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -512,74 +488,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{798C85FC-6694-4C32-990B-95D3DC43A154}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>